--- a/Asset/Server/src/infra/repositories/infra-asset.xlsx
+++ b/Asset/Server/src/infra/repositories/infra-asset.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25811"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8190CDD-EFD1-4303-A634-895A652D6046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14167E02-9BDD-4026-AA90-AF891191BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>10-01-01-01-01: Direction Luminaires- Exit</t>
   </si>
   <si>
-    <t>12-10-01-01: 31525 Ecological Inverter</t>
+    <t>12-10-01-02: 31525 Ecological Inverter</t>
   </si>
   <si>
     <t>DurationUnit: Month</t>
@@ -652,7 +652,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Asset/Server/src/infra/repositories/infra-asset.xlsx
+++ b/Asset/Server/src/infra/repositories/infra-asset.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25811"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14167E02-9BDD-4026-AA90-AF891191BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BFB3C1A-482A-42EE-95CB-3B94096E4D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,12 +63,12 @@
     <t>12-10-00-00: Beko</t>
   </si>
   <si>
+    <t>DurationUnit: Gerektiğince</t>
+  </si>
+  <si>
     <t>DurationUnit: As required</t>
   </si>
   <si>
-    <t>DurationUnit: Gerektiğince</t>
-  </si>
-  <si>
     <t>AssetType: Sabit</t>
   </si>
   <si>
@@ -87,12 +87,12 @@
     <t>12-10-01-00: Air Conditioning</t>
   </si>
   <si>
+    <t>DurationUnit: Gün</t>
+  </si>
+  <si>
     <t>DurationUnit: Day</t>
   </si>
   <si>
-    <t>DurationUnit: Gün</t>
-  </si>
-  <si>
     <t>AssetType: Hareketli</t>
   </si>
   <si>
@@ -108,12 +108,12 @@
     <t>12-10-01-01: 32425 Ecological Inverter</t>
   </si>
   <si>
+    <t>DurationUnit: Dakika</t>
+  </si>
+  <si>
     <t>DurationUnit: Minute</t>
   </si>
   <si>
-    <t>DurationUnit: Dakika</t>
-  </si>
-  <si>
     <t>10-01-01-01-01: Yönlendirme Armatürleri- Exit</t>
   </si>
   <si>
@@ -123,12 +123,12 @@
     <t>12-10-01-02: 31525 Ecological Inverter</t>
   </si>
   <si>
+    <t>DurationUnit: Ay</t>
+  </si>
+  <si>
     <t>DurationUnit: Month</t>
   </si>
   <si>
-    <t>DurationUnit: Ay</t>
-  </si>
-  <si>
     <t>10-01-01-02-00: İç Aydınlatma</t>
   </si>
   <si>
@@ -138,12 +138,12 @@
     <t>12-20-00-00: Apple</t>
   </si>
   <si>
+    <t>DurationUnit: Çeyrek</t>
+  </si>
+  <si>
     <t>DurationUnit: Quarter</t>
   </si>
   <si>
-    <t>DurationUnit: Çeyrek</t>
-  </si>
-  <si>
     <t>10-01-01-02-01: Anahtarlar (Adi, komitatör, vavien, liht buton vs.)</t>
   </si>
   <si>
@@ -156,12 +156,12 @@
     <t>12-20-01-00: Phone</t>
   </si>
   <si>
+    <t>DurationUnit: Hafta</t>
+  </si>
+  <si>
     <t>DurationUnit: Week</t>
   </si>
   <si>
-    <t>DurationUnit: Hafta</t>
-  </si>
-  <si>
     <t>10-01-01-02-02: Armatürler (Etanj, Spot, Aplik, Avize vs.)</t>
   </si>
   <si>
@@ -171,10 +171,10 @@
     <t>12-20-01-01: IPhone 14</t>
   </si>
   <si>
+    <t>DurationUnit: Yıl</t>
+  </si>
+  <si>
     <t>DurationUnit: Year</t>
-  </si>
-  <si>
-    <t>DurationUnit: Yıl</t>
   </si>
   <si>
     <t>10-01-01-02-03: Hareket Sensörleri</t>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
